--- a/Saved_file/EM001/2026_08/sap_data.xlsx
+++ b/Saved_file/EM001/2026_08/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-08-18</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST1736</t>
+          <t>CUST2888</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>45736760</v>
+        <v>46644821</v>
       </c>
       <c r="E2" t="n">
-        <v>12066778</v>
+        <v>13524663</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -546,25 +546,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-08-06</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST1801</t>
+          <t>CUST9697</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>39206953</v>
+        <v>56956748</v>
       </c>
       <c r="E3" t="n">
-        <v>10047671</v>
+        <v>18935414</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -578,12 +578,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST1501</t>
+          <t>CUST1572</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>33394349</v>
+        <v>56815427</v>
       </c>
       <c r="E4" t="n">
-        <v>8804151</v>
+        <v>17443501</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-08-29</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST2261</t>
+          <t>CUST8257</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>41555638</v>
+        <v>54653937</v>
       </c>
       <c r="E5" t="n">
-        <v>14182320</v>
+        <v>16787570</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST2216</t>
+          <t>CUST6048</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>40525526</v>
+        <v>56978154</v>
       </c>
       <c r="E6" t="n">
-        <v>11572751</v>
+        <v>19089717</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST6272</t>
+          <t>CUST4742</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30167186</v>
+        <v>41818980</v>
       </c>
       <c r="E7" t="n">
-        <v>8398816</v>
+        <v>12493277</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST2672</t>
+          <t>CUST6900</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30286549</v>
+        <v>36729712</v>
       </c>
       <c r="E8" t="n">
-        <v>8363314</v>
+        <v>11048037</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST2216</t>
+          <t>CUST7486</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>47476851</v>
+        <v>57096307</v>
       </c>
       <c r="E9" t="n">
-        <v>13190029</v>
+        <v>16745177</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -902,17 +902,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2026-08-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST1801</t>
+          <t>CUST9159</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34503997</v>
+        <v>52978262</v>
       </c>
       <c r="E10" t="n">
-        <v>9102936</v>
+        <v>17124867</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST2610</t>
+          <t>CUST2475</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>39219986</v>
+        <v>45580707</v>
       </c>
       <c r="E11" t="n">
-        <v>10596033</v>
+        <v>12694358</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-08-21</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST6469</t>
+          <t>CUST8992</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>56230525</v>
+        <v>39938034</v>
       </c>
       <c r="E12" t="n">
-        <v>18285617</v>
+        <v>11194081</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST7665</t>
+          <t>CUST6760</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42492988</v>
+        <v>58705660</v>
       </c>
       <c r="E13" t="n">
-        <v>11218216</v>
+        <v>16553057</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST4921</t>
+          <t>CUST3638</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>33658574</v>
+        <v>37156437</v>
       </c>
       <c r="E14" t="n">
-        <v>9293461</v>
+        <v>12896870</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-08-17</t>
+          <t>2026-08-16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST1552</t>
+          <t>CUST4945</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50201473</v>
+        <v>57561138</v>
       </c>
       <c r="E15" t="n">
-        <v>13697502</v>
+        <v>15356705</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-08-03</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST2610</t>
+          <t>CUST6321</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35086054</v>
+        <v>44509254</v>
       </c>
       <c r="E16" t="n">
-        <v>11593325</v>
+        <v>14983669</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1307,20 +1307,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST8038</t>
+          <t>CUST8850</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35021749</v>
+        <v>52006603</v>
       </c>
       <c r="E17" t="n">
-        <v>10311489</v>
+        <v>16815570</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-08-19</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST3332</t>
+          <t>CUST8992</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>31383857</v>
+        <v>43130475</v>
       </c>
       <c r="E18" t="n">
-        <v>10009632</v>
+        <v>14567459</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1388,12 +1388,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST3996</t>
+          <t>CUST1929</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47864005</v>
+        <v>49594148</v>
       </c>
       <c r="E19" t="n">
-        <v>15655162</v>
+        <v>13786442</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1447,12 +1447,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-08-22</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST4904</t>
+          <t>CUST8257</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>40103188</v>
+        <v>53504885</v>
       </c>
       <c r="E20" t="n">
-        <v>12387546</v>
+        <v>16144237</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST9625</t>
+          <t>CUST1009</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>46082267</v>
+        <v>36911508</v>
       </c>
       <c r="E21" t="n">
-        <v>16094373</v>
+        <v>11539680</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-08-02</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST4226</t>
+          <t>CUST1009</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>34587032</v>
+        <v>37371183</v>
       </c>
       <c r="E22" t="n">
-        <v>10436420</v>
+        <v>9451728</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1609,12 +1609,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST8038</t>
+          <t>CUST4945</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38093612</v>
+        <v>56987133</v>
       </c>
       <c r="E23" t="n">
-        <v>12121281</v>
+        <v>19433959</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-08-22</t>
+          <t>2026-08-09</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST1552</t>
+          <t>CUST9159</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>38946042</v>
+        <v>45807474</v>
       </c>
       <c r="E24" t="n">
-        <v>9921045</v>
+        <v>15444181</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST7665</t>
+          <t>CUST2078</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>52213458</v>
+        <v>46078696</v>
       </c>
       <c r="E25" t="n">
-        <v>17360165</v>
+        <v>13678601</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST1801</t>
+          <t>CUST2547</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>48600574</v>
+        <v>42030562</v>
       </c>
       <c r="E26" t="n">
-        <v>12323616</v>
+        <v>14113009</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST3450</t>
+          <t>CUST4742</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38018029</v>
+        <v>51253775</v>
       </c>
       <c r="E27" t="n">
-        <v>10372338</v>
+        <v>16637702</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1896,19 +1896,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST4921</t>
+          <t>CUST9697</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>49396242</v>
+        <v>57771722</v>
       </c>
       <c r="E28" t="n">
-        <v>13722206</v>
+        <v>19683658</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1955,20 +1955,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST1801</t>
+          <t>CUST8389</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>42241323</v>
+        <v>37985796</v>
       </c>
       <c r="E29" t="n">
-        <v>13688739</v>
+        <v>11681548</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST7665</t>
+          <t>CUST5578</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30965133</v>
+        <v>56577365</v>
       </c>
       <c r="E30" t="n">
-        <v>9299379</v>
+        <v>18506321</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST8038</t>
+          <t>CUST4742</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>42572719</v>
+        <v>45279448</v>
       </c>
       <c r="E31" t="n">
-        <v>10966689</v>
+        <v>15677252</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2095,12 +2095,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-09</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST9625</t>
+          <t>CUST6048</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>35236019</v>
+        <v>43361932</v>
       </c>
       <c r="E32" t="n">
-        <v>12020870</v>
+        <v>11956121</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-08-10</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST5632</t>
+          <t>CUST6048</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>42870973</v>
+        <v>59468730</v>
       </c>
       <c r="E33" t="n">
-        <v>11600692</v>
+        <v>16296419</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-08-13</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST1777</t>
+          <t>CUST1144</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>54018807</v>
+        <v>47696774</v>
       </c>
       <c r="E34" t="n">
-        <v>13574650</v>
+        <v>12832877</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-23</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST6272</t>
+          <t>CUST8389</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>41014247</v>
+        <v>58411921</v>
       </c>
       <c r="E35" t="n">
-        <v>11216262</v>
+        <v>19941757</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-25</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST4280</t>
+          <t>CUST8992</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>42203955</v>
+        <v>32378805</v>
       </c>
       <c r="E36" t="n">
-        <v>14732742</v>
+        <v>10208042</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-08-17</t>
+          <t>2026-08-16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST8441</t>
+          <t>CUST8850</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>56415944</v>
+        <v>31258934</v>
       </c>
       <c r="E37" t="n">
-        <v>16913034</v>
+        <v>10889019</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST4309</t>
+          <t>CUST2547</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>39922715</v>
+        <v>42374351</v>
       </c>
       <c r="E38" t="n">
-        <v>11017506</v>
+        <v>10991794</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST1552</t>
+          <t>CUST5998</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>33193591</v>
+        <v>46148073</v>
       </c>
       <c r="E39" t="n">
-        <v>10548757</v>
+        <v>11822773</v>
       </c>
       <c r="F39" t="n">
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,12 +2522,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2544,25 +2544,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-08-16</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST4344</t>
+          <t>CUST2888</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>59219593</v>
+        <v>33145400</v>
       </c>
       <c r="E40" t="n">
-        <v>16923135</v>
+        <v>9756008</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2598,25 +2598,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-08-30</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST4280</t>
+          <t>CUST9762</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>44163820</v>
+        <v>42261092</v>
       </c>
       <c r="E41" t="n">
-        <v>11502158</v>
+        <v>11588822</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2630,12 +2630,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-08-09</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST1801</t>
+          <t>CUST9762</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>58992352</v>
+        <v>50796695</v>
       </c>
       <c r="E42" t="n">
-        <v>16078484</v>
+        <v>17030023</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2684,12 +2684,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST2811</t>
+          <t>CUST1009</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>39177295</v>
+        <v>51455977</v>
       </c>
       <c r="E43" t="n">
-        <v>13345533</v>
+        <v>15638036</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2760,22 +2760,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST5632</t>
+          <t>CUST9762</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>31044966</v>
+        <v>49507357</v>
       </c>
       <c r="E44" t="n">
-        <v>8567516</v>
+        <v>13305766</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
         <v>15</v>
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST7665</t>
+          <t>CUST1475</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>31554809</v>
+        <v>39284927</v>
       </c>
       <c r="E45" t="n">
-        <v>10725126</v>
+        <v>12046858</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-08-16</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST4226</t>
+          <t>CUST1144</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>44506946</v>
+        <v>59246907</v>
       </c>
       <c r="E46" t="n">
-        <v>14863363</v>
+        <v>15283603</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-05</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST3996</t>
+          <t>CUST8257</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>45051597</v>
+        <v>30535619</v>
       </c>
       <c r="E47" t="n">
-        <v>13384924</v>
+        <v>7767667</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2026-08-19</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST6457</t>
+          <t>CUST9762</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>49321258</v>
+        <v>56656546</v>
       </c>
       <c r="E48" t="n">
-        <v>14330366</v>
+        <v>18592189</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST3025</t>
+          <t>CUST1051</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>50613381</v>
+        <v>30648090</v>
       </c>
       <c r="E49" t="n">
-        <v>13048278</v>
+        <v>9251203</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-08-16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST5554</t>
+          <t>CUST6958</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>51897450</v>
+        <v>49312390</v>
       </c>
       <c r="E50" t="n">
-        <v>15720833</v>
+        <v>16195601</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST2811</t>
+          <t>CUST2078</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>52074564</v>
+        <v>54040506</v>
       </c>
       <c r="E51" t="n">
-        <v>17596826</v>
+        <v>17423857</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-08-29</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST4344</t>
+          <t>CUST9762</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>34627858</v>
+        <v>52394259</v>
       </c>
       <c r="E52" t="n">
-        <v>8781454</v>
+        <v>14128707</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3224,12 +3224,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-08-03</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST3332</t>
+          <t>CUST7511</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>46021383</v>
+        <v>53286562</v>
       </c>
       <c r="E53" t="n">
-        <v>11669347</v>
+        <v>17153068</v>
       </c>
       <c r="F53" t="n">
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,17 +3278,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-08-09</t>
+          <t>2026-08-16</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST7665</t>
+          <t>CUST6760</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>33246859</v>
+        <v>38455753</v>
       </c>
       <c r="E54" t="n">
-        <v>11388188</v>
+        <v>10867902</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST7368</t>
+          <t>CUST2547</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>32764511</v>
+        <v>48347305</v>
       </c>
       <c r="E55" t="n">
-        <v>9644671</v>
+        <v>14207814</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST3996</t>
+          <t>CUST9497</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>40245551</v>
+        <v>59543703</v>
       </c>
       <c r="E56" t="n">
-        <v>12387846</v>
+        <v>15459164</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-08-22</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST5893</t>
+          <t>CUST1116</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>50350875</v>
+        <v>33720801</v>
       </c>
       <c r="E57" t="n">
-        <v>16705169</v>
+        <v>10332954</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-08</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST7408</t>
+          <t>CUST8389</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>40036047</v>
+        <v>48115763</v>
       </c>
       <c r="E58" t="n">
-        <v>11031396</v>
+        <v>14862658</v>
       </c>
       <c r="F58" t="n">
         <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-08-23</t>
+          <t>2026-08-30</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST7665</t>
+          <t>CUST9985</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>51441036</v>
+        <v>50839964</v>
       </c>
       <c r="E59" t="n">
-        <v>17001328</v>
+        <v>15844442</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-08-31</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST3025</t>
+          <t>CUST7698</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>51355248</v>
+        <v>41601905</v>
       </c>
       <c r="E60" t="n">
-        <v>15744291</v>
+        <v>11473204</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST4921</t>
+          <t>CUST2078</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>36297430</v>
+        <v>57997921</v>
       </c>
       <c r="E61" t="n">
-        <v>10521140</v>
+        <v>16747810</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,17 +3710,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-08-18</t>
+          <t>2026-08-27</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST9231</t>
+          <t>CUST6900</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>52055583</v>
+        <v>56510218</v>
       </c>
       <c r="E62" t="n">
-        <v>15878497</v>
+        <v>18501940</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3786,29 +3786,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-08-08</t>
+          <t>2026-08-03</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST2261</t>
+          <t>CUST6321</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>52420467</v>
+        <v>41364821</v>
       </c>
       <c r="E63" t="n">
-        <v>13628475</v>
+        <v>13862062</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3840,25 +3840,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST3526</t>
+          <t>CUST1144</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>54634092</v>
+        <v>53432801</v>
       </c>
       <c r="E64" t="n">
-        <v>19001143</v>
+        <v>16394938</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3872,17 +3872,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-08-18</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST3332</t>
+          <t>CUST6900</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48462954</v>
+        <v>35784448</v>
       </c>
       <c r="E65" t="n">
-        <v>14546210</v>
+        <v>9478248</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -3948,25 +3948,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-08-17</t>
+          <t>2026-08-19</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST4271</t>
+          <t>CUST8019</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>33239309</v>
+        <v>46184205</v>
       </c>
       <c r="E66" t="n">
-        <v>8848117</v>
+        <v>14993392</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3980,12 +3980,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-15</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST1501</t>
+          <t>CUST9697</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>36171325</v>
+        <v>59236064</v>
       </c>
       <c r="E67" t="n">
-        <v>9650228</v>
+        <v>19043101</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4061,20 +4061,20 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST1552</t>
+          <t>CUST9697</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>52673296</v>
+        <v>41760834</v>
       </c>
       <c r="E68" t="n">
-        <v>14963147</v>
+        <v>11274244</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4110,29 +4110,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-08-31</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST4309</t>
+          <t>CUST1572</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>55999391</v>
+        <v>50408014</v>
       </c>
       <c r="E69" t="n">
-        <v>14457664</v>
+        <v>14346619</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4142,17 +4142,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-08-17</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST3025</t>
+          <t>CUST8019</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>35082572</v>
+        <v>49709266</v>
       </c>
       <c r="E70" t="n">
-        <v>12086579</v>
+        <v>14017365</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4218,25 +4218,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-11</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST4271</t>
+          <t>CUST8850</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>41122527</v>
+        <v>35528489</v>
       </c>
       <c r="E71" t="n">
-        <v>12061975</v>
+        <v>12380763</v>
       </c>
       <c r="F71" t="n">
         <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4250,17 +4250,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4272,29 +4272,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-08-08</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST2216</t>
+          <t>CUST7698</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>58480798</v>
+        <v>56742784</v>
       </c>
       <c r="E72" t="n">
-        <v>19859435</v>
+        <v>18904346</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4326,25 +4326,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-08-21</t>
+          <t>2026-08-18</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST4921</t>
+          <t>CUST8234</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>53978739</v>
+        <v>58523446</v>
       </c>
       <c r="E73" t="n">
-        <v>15031716</v>
+        <v>19134817</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4363,12 +4363,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-27</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST7408</t>
+          <t>CUST8754</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>53507876</v>
+        <v>31742812</v>
       </c>
       <c r="E74" t="n">
-        <v>13822653</v>
+        <v>10796502</v>
       </c>
       <c r="F74" t="n">
         <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4434,25 +4434,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-08-31</t>
+          <t>2026-08-26</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST4321</t>
+          <t>CUST6321</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>38234484</v>
+        <v>53252029</v>
       </c>
       <c r="E75" t="n">
-        <v>11819640</v>
+        <v>13337115</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4488,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-08-01</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST3450</t>
+          <t>CUST7511</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>37797021</v>
+        <v>41783650</v>
       </c>
       <c r="E76" t="n">
-        <v>10530042</v>
+        <v>10869277</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-08-31</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST5893</t>
+          <t>CUST5029</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>41036618</v>
+        <v>43389508</v>
       </c>
       <c r="E77" t="n">
-        <v>13238028</v>
+        <v>13276578</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4574,12 +4574,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4596,29 +4596,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-08-13</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST3450</t>
+          <t>CUST4945</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>31835788</v>
+        <v>53549024</v>
       </c>
       <c r="E78" t="n">
-        <v>9160431</v>
+        <v>15502335</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4655,20 +4655,20 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST1777</t>
+          <t>CUST5578</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>49919806</v>
+        <v>50177183</v>
       </c>
       <c r="E79" t="n">
-        <v>15322661</v>
+        <v>15511305</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4704,29 +4704,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>2026-08-07</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST5893</t>
+          <t>CUST6900</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>36013932</v>
+        <v>34585151</v>
       </c>
       <c r="E80" t="n">
-        <v>10007801</v>
+        <v>11863974</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4758,29 +4758,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-08-29</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST5893</t>
+          <t>CUST2888</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>35502311</v>
+        <v>45041084</v>
       </c>
       <c r="E81" t="n">
-        <v>12072867</v>
+        <v>13218042</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4790,17 +4790,17 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4812,25 +4812,25 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-08-29</t>
+          <t>2026-08-23</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST3332</t>
+          <t>CUST5659</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>55046652</v>
+        <v>57986582</v>
       </c>
       <c r="E82" t="n">
-        <v>17404619</v>
+        <v>14966481</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -4844,17 +4844,17 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-08-18</t>
+          <t>2026-08-30</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST4921</t>
+          <t>CUST1051</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>54498307</v>
+        <v>36348132</v>
       </c>
       <c r="E83" t="n">
-        <v>14607913</v>
+        <v>12499893</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4903,12 +4903,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4920,25 +4920,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST1552</t>
+          <t>CUST5571</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>56198045</v>
+        <v>38691789</v>
       </c>
       <c r="E84" t="n">
-        <v>19655925</v>
+        <v>11337593</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4952,12 +4952,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -4974,25 +4974,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-08-18</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST6457</t>
+          <t>CUST3495</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>30409173</v>
+        <v>55819909</v>
       </c>
       <c r="E85" t="n">
-        <v>9201598</v>
+        <v>17523765</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5011,12 +5011,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST5633</t>
+          <t>CUST8234</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>49927467</v>
+        <v>43991120</v>
       </c>
       <c r="E86" t="n">
-        <v>16850558</v>
+        <v>13115700</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5060,17 +5060,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5082,25 +5082,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST1801</t>
+          <t>CUST9697</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>32311985</v>
+        <v>51516254</v>
       </c>
       <c r="E87" t="n">
-        <v>9689210</v>
+        <v>17308735</v>
       </c>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-07</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST1552</t>
+          <t>CUST8019</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>30599188</v>
+        <v>58209282</v>
       </c>
       <c r="E88" t="n">
-        <v>10195524</v>
+        <v>18457304</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-27</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST1801</t>
+          <t>CUST6760</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>41961928</v>
+        <v>51331945</v>
       </c>
       <c r="E89" t="n">
-        <v>12911773</v>
+        <v>14905325</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>2026-08-25</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST6890</t>
+          <t>CUST4742</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>41786565</v>
+        <v>34330196</v>
       </c>
       <c r="E90" t="n">
-        <v>12662306</v>
+        <v>8815949</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5276,17 +5276,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5298,25 +5298,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-16</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST3450</t>
+          <t>CUST5998</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>41912439</v>
+        <v>45859141</v>
       </c>
       <c r="E91" t="n">
-        <v>13366497</v>
+        <v>11545672</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5330,12 +5330,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5352,29 +5352,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-08-16</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CUST1801</t>
+          <t>CUST8850</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>49050783</v>
+        <v>59993263</v>
       </c>
       <c r="E92" t="n">
-        <v>13133023</v>
+        <v>16586487</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5406,25 +5406,25 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-08-22</t>
+          <t>2026-08-09</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CUST9231</t>
+          <t>CUST8257</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>34963459</v>
+        <v>52805503</v>
       </c>
       <c r="E93" t="n">
-        <v>10783678</v>
+        <v>16141124</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5438,17 +5438,17 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5460,29 +5460,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CUST4271</t>
+          <t>CUST9159</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>34007918</v>
+        <v>43118469</v>
       </c>
       <c r="E94" t="n">
-        <v>8562841</v>
+        <v>11934974</v>
       </c>
       <c r="F94" t="n">
         <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5492,17 +5492,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5514,25 +5514,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-08-18</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CUST1801</t>
+          <t>CUST3495</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>59467560</v>
+        <v>39478259</v>
       </c>
       <c r="E95" t="n">
-        <v>20294331</v>
+        <v>10463035</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -5546,17 +5546,17 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5568,29 +5568,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-08-10</t>
+          <t>2026-08-14</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CUST7944</t>
+          <t>CUST6958</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>53152397</v>
+        <v>55952103</v>
       </c>
       <c r="E96" t="n">
-        <v>15399670</v>
+        <v>14277109</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5600,17 +5600,17 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5622,25 +5622,25 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-18</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUST1777</t>
+          <t>CUST1009</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>54905750</v>
+        <v>44581443</v>
       </c>
       <c r="E97" t="n">
-        <v>15168976</v>
+        <v>11876924</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G97" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -5659,12 +5659,12 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-08-08</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUST4872</t>
+          <t>CUST1009</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>36570929</v>
+        <v>43436608</v>
       </c>
       <c r="E98" t="n">
-        <v>12034226</v>
+        <v>14625578</v>
       </c>
       <c r="F98" t="n">
         <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -5713,12 +5713,12 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5730,29 +5730,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-08-28</t>
+          <t>2026-08-14</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUST1736</t>
+          <t>CUST1144</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>49264427</v>
+        <v>31961553</v>
       </c>
       <c r="E99" t="n">
-        <v>14842089</v>
+        <v>10287858</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5767,12 +5767,12 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5784,29 +5784,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-08-04</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CUST7408</t>
+          <t>CUST2475</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>49332828</v>
+        <v>57624411</v>
       </c>
       <c r="E100" t="n">
-        <v>16688347</v>
+        <v>18412785</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5816,17 +5816,17 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5838,29 +5838,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-08-18</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUST6882</t>
+          <t>CUST2475</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>35993947</v>
+        <v>54588590</v>
       </c>
       <c r="E101" t="n">
-        <v>10150154</v>
+        <v>17208470</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5870,17 +5870,17 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5892,29 +5892,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-08-28</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CUST2410</t>
+          <t>CUST9985</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>33848315</v>
+        <v>36558820</v>
       </c>
       <c r="E102" t="n">
-        <v>11628813</v>
+        <v>10021149</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5924,17 +5924,17 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5946,29 +5946,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-08-28</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CUST5632</t>
+          <t>CUST1929</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>39329510</v>
+        <v>38883895</v>
       </c>
       <c r="E103" t="n">
-        <v>12982036</v>
+        <v>10426269</v>
       </c>
       <c r="F103" t="n">
         <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6000,25 +6000,25 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-08-28</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CUST3526</t>
+          <t>CUST4742</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>57983092</v>
+        <v>39493365</v>
       </c>
       <c r="E104" t="n">
-        <v>16895179</v>
+        <v>10023848</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -6032,12 +6032,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -6054,29 +6054,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CUST4480</t>
+          <t>CUST1144</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>50087989</v>
+        <v>42533028</v>
       </c>
       <c r="E105" t="n">
-        <v>13978448</v>
+        <v>14790252</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6108,29 +6108,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-08-22</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CUST2672</t>
+          <t>CUST2888</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>58342540</v>
+        <v>50576077</v>
       </c>
       <c r="E106" t="n">
-        <v>16370364</v>
+        <v>15593218</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6145,12 +6145,12 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6162,29 +6162,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-08-08</t>
+          <t>2026-08-26</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CUST8038</t>
+          <t>CUST8754</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>35412905</v>
+        <v>41840285</v>
       </c>
       <c r="E107" t="n">
-        <v>9971472</v>
+        <v>10611656</v>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6194,17 +6194,17 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6216,25 +6216,25 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CUST1801</t>
+          <t>CUST9159</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>46489008</v>
+        <v>52455372</v>
       </c>
       <c r="E108" t="n">
-        <v>12070126</v>
+        <v>17800346</v>
       </c>
       <c r="F108" t="n">
         <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -6248,17 +6248,17 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6270,29 +6270,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-08-01</t>
+          <t>2026-08-26</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CUST4280</t>
+          <t>CUST9762</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>48331740</v>
+        <v>34452393</v>
       </c>
       <c r="E109" t="n">
-        <v>15418128</v>
+        <v>11042947</v>
       </c>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6324,25 +6324,25 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-08-03</t>
+          <t>2026-08-09</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CUST1171</t>
+          <t>CUST6900</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>51305063</v>
+        <v>44015433</v>
       </c>
       <c r="E110" t="n">
-        <v>15674041</v>
+        <v>15347562</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6378,25 +6378,25 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-08-29</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CUST3450</t>
+          <t>CUST9159</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>34488632</v>
+        <v>41223952</v>
       </c>
       <c r="E111" t="n">
-        <v>10877287</v>
+        <v>12666155</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -6410,17 +6410,17 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6432,29 +6432,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-08-31</t>
+          <t>2026-08-15</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CUST6882</t>
+          <t>CUST4945</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>53640797</v>
+        <v>36611882</v>
       </c>
       <c r="E112" t="n">
-        <v>18712443</v>
+        <v>10996726</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6464,12 +6464,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -6486,29 +6486,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-08-29</t>
+          <t>2026-08-14</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CUST6457</t>
+          <t>CUST8992</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>58734524</v>
+        <v>59076401</v>
       </c>
       <c r="E113" t="n">
-        <v>16762577</v>
+        <v>19637635</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6518,12 +6518,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -6540,25 +6540,25 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-08-02</t>
+          <t>2026-08-03</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CUST5632</t>
+          <t>CUST1608</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>57361336</v>
+        <v>33144910</v>
       </c>
       <c r="E114" t="n">
-        <v>17770107</v>
+        <v>10688948</v>
       </c>
       <c r="F114" t="n">
         <v>3</v>
       </c>
       <c r="G114" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -6594,25 +6594,25 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CUST7368</t>
+          <t>CUST1929</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>48719495</v>
+        <v>51473288</v>
       </c>
       <c r="E115" t="n">
-        <v>12394548</v>
+        <v>16834383</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -6626,12 +6626,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -6648,25 +6648,25 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CUST2672</t>
+          <t>CUST3791</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>35009117</v>
+        <v>34029001</v>
       </c>
       <c r="E116" t="n">
-        <v>10749979</v>
+        <v>10820925</v>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -6680,17 +6680,17 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6702,29 +6702,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CUST6457</t>
+          <t>CUST1888</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>42406119</v>
+        <v>57877424</v>
       </c>
       <c r="E117" t="n">
-        <v>10848016</v>
+        <v>19719393</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6734,17 +6734,17 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6756,29 +6756,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CUST3025</t>
+          <t>CUST7486</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>54636288</v>
+        <v>51628586</v>
       </c>
       <c r="E118" t="n">
-        <v>19121843</v>
+        <v>17592538</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6810,25 +6810,25 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CUST4321</t>
+          <t>CUST3791</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>55679374</v>
+        <v>47193881</v>
       </c>
       <c r="E119" t="n">
-        <v>18568409</v>
+        <v>12457028</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -6842,17 +6842,17 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6864,29 +6864,29 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-08-06</t>
+          <t>2026-08-01</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CUST4280</t>
+          <t>CUST3638</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>48894641</v>
+        <v>50395693</v>
       </c>
       <c r="E120" t="n">
-        <v>12526556</v>
+        <v>15283940</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6896,17 +6896,17 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6918,29 +6918,29 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CUST2811</t>
+          <t>CUST9697</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>44828476</v>
+        <v>54824417</v>
       </c>
       <c r="E121" t="n">
-        <v>13072910</v>
+        <v>18003430</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6950,17 +6950,17 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -7055,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.8</v>
+        <v>99.2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>9541705</v>
+        <v>5230379</v>
       </c>
       <c r="E4" t="n">
-        <v>1640055</v>
+        <v>1472170</v>
       </c>
     </row>
     <row r="5">
@@ -7074,16 +7074,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>14313485</v>
+        <v>11286471</v>
       </c>
       <c r="E5" t="n">
-        <v>3521994</v>
+        <v>1293047</v>
       </c>
     </row>
     <row r="6">
@@ -7093,16 +7093,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.7</v>
+        <v>91.8</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3091947</v>
+        <v>8506732</v>
       </c>
       <c r="E6" t="n">
-        <v>711251</v>
+        <v>1953841</v>
       </c>
     </row>
     <row r="7">
@@ -7115,13 +7115,13 @@
         <v>97.3</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>8605403</v>
+        <v>2370278</v>
       </c>
       <c r="E7" t="n">
-        <v>2485522</v>
+        <v>387482</v>
       </c>
     </row>
     <row r="8">
@@ -7131,16 +7131,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>12143890</v>
+        <v>5018705</v>
       </c>
       <c r="E8" t="n">
-        <v>1558770</v>
+        <v>920584</v>
       </c>
     </row>
     <row r="9">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>84.3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>7222768</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1114672</v>
       </c>
     </row>
     <row r="10">
@@ -7188,16 +7188,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>4212350</v>
+        <v>14315849</v>
       </c>
       <c r="E11" t="n">
-        <v>556456</v>
+        <v>2615374</v>
       </c>
     </row>
     <row r="12">
@@ -7207,16 +7207,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5399738</v>
+        <v>12242080</v>
       </c>
       <c r="E12" t="n">
-        <v>1421518</v>
+        <v>2455079</v>
       </c>
     </row>
     <row r="13">
@@ -7226,16 +7226,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>6550325</v>
+        <v>11803962</v>
       </c>
       <c r="E13" t="n">
-        <v>1619414</v>
+        <v>1655863</v>
       </c>
     </row>
     <row r="14">
@@ -7245,16 +7245,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.7</v>
+        <v>91.7</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5795289</v>
+        <v>6034488</v>
       </c>
       <c r="E14" t="n">
-        <v>641626</v>
+        <v>661146</v>
       </c>
     </row>
     <row r="15">
@@ -7264,16 +7264,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>7961442</v>
+        <v>22339688</v>
       </c>
       <c r="E15" t="n">
-        <v>1587530</v>
+        <v>5323215</v>
       </c>
     </row>
     <row r="16">
@@ -7283,16 +7283,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>10328858</v>
+        <v>3965165</v>
       </c>
       <c r="E16" t="n">
-        <v>2300202</v>
+        <v>400117</v>
       </c>
     </row>
     <row r="17">
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2022312</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>319673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7321,16 +7321,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>17987286</v>
+        <v>16929816</v>
       </c>
       <c r="E18" t="n">
-        <v>2638562</v>
+        <v>3221925</v>
       </c>
     </row>
     <row r="19">
@@ -7340,16 +7340,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>9198413</v>
+        <v>5741266</v>
       </c>
       <c r="E19" t="n">
-        <v>2591817</v>
+        <v>1017723</v>
       </c>
     </row>
     <row r="20">
@@ -7359,16 +7359,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.8</v>
+        <v>90.2</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>13262465</v>
+        <v>2273787</v>
       </c>
       <c r="E20" t="n">
-        <v>2289087</v>
+        <v>471374</v>
       </c>
     </row>
     <row r="21">
@@ -7378,16 +7378,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>94.09999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>7841394</v>
+        <v>7590557</v>
       </c>
       <c r="E21" t="n">
-        <v>1228386</v>
+        <v>2029092</v>
       </c>
     </row>
     <row r="22">
@@ -7397,16 +7397,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.2</v>
+        <v>90.3</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>8683864</v>
+        <v>17917480</v>
       </c>
       <c r="E22" t="n">
-        <v>1859969</v>
+        <v>1890552</v>
       </c>
     </row>
     <row r="23">
@@ -7435,16 +7435,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>3461789</v>
+        <v>8726637</v>
       </c>
       <c r="E24" t="n">
-        <v>681774</v>
+        <v>2376344</v>
       </c>
     </row>
     <row r="25">
@@ -7454,16 +7454,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>19174879</v>
+        <v>2657743</v>
       </c>
       <c r="E25" t="n">
-        <v>2788316</v>
+        <v>272407</v>
       </c>
     </row>
     <row r="26">
@@ -7473,16 +7473,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>96.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>12794259</v>
+        <v>4084248</v>
       </c>
       <c r="E26" t="n">
-        <v>2562414</v>
+        <v>993237</v>
       </c>
     </row>
     <row r="27">
@@ -7492,16 +7492,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>93.8</v>
+        <v>91.8</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>13279107</v>
+        <v>4417334</v>
       </c>
       <c r="E27" t="n">
-        <v>2877366</v>
+        <v>943419</v>
       </c>
     </row>
     <row r="28">
@@ -7511,16 +7511,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.3</v>
+        <v>92</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>12495372</v>
+        <v>5089541</v>
       </c>
       <c r="E28" t="n">
-        <v>1467995</v>
+        <v>613403</v>
       </c>
     </row>
     <row r="29">
@@ -7530,16 +7530,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>3533071</v>
+        <v>5562895</v>
       </c>
       <c r="E29" t="n">
-        <v>411875</v>
+        <v>612953</v>
       </c>
     </row>
     <row r="30">
@@ -7549,16 +7549,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>5257712</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>629381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -7587,16 +7587,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>93.7</v>
+        <v>94.8</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3396908</v>
+        <v>7798983</v>
       </c>
       <c r="E32" t="n">
-        <v>624514</v>
+        <v>928626</v>
       </c>
     </row>
   </sheetData>
